--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Backlog filled" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$D$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$D$50</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>Id.</t>
   </si>
@@ -195,6 +195,12 @@
   <si>
     <t>As a customer, I would like to receive a list of available carpenters to help me build my carport after I paid for it, so that I can get it built if I can't do it myself (found after Service management interview)</t>
   </si>
+  <si>
+    <t>customer download illustration as pdf</t>
+  </si>
+  <si>
+    <t>As a customer, I would like to be able to download the carport illustration as a pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +260,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +288,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -324,7 +336,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -425,6 +437,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -759,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1002"/>
+  <dimension ref="A1:W1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1204,18 +1219,18 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:23" ht="26">
+    <row r="14" spans="1:23" s="5" customFormat="1" ht="26">
       <c r="A14" s="21">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>35</v>
+      <c r="C14" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="D14" s="22">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1242,13 +1257,13 @@
         <v>50</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D15" s="22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1272,13 +1287,13 @@
     </row>
     <row r="16" spans="1:23" ht="26">
       <c r="A16" s="21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="22">
         <v>5</v>
@@ -1303,15 +1318,15 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="1:23" s="5" customFormat="1" ht="26">
+    <row r="17" spans="1:23" ht="26">
       <c r="A17" s="21">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="22">
         <v>5</v>
@@ -1336,18 +1351,18 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="1:23" ht="26">
-      <c r="A18" s="19">
-        <v>5</v>
+    <row r="18" spans="1:23" s="5" customFormat="1" ht="26">
+      <c r="A18" s="21">
+        <v>30</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
-      <c r="D18" s="20">
-        <v>8</v>
+      <c r="D18" s="22">
+        <v>5</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1371,16 +1386,16 @@
     </row>
     <row r="19" spans="1:23" ht="26">
       <c r="A19" s="19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1407,13 +1422,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" s="20">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1435,18 +1450,18 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="1:23" ht="39">
+    <row r="21" spans="1:23" ht="26">
       <c r="A21" s="19">
         <v>0</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="20">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1469,17 +1484,17 @@
       <c r="W21" s="4"/>
     </row>
     <row r="22" spans="1:23" ht="39">
-      <c r="A22" s="21">
+      <c r="A22" s="19">
         <v>0</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
-      <c r="D22" s="22">
-        <v>3</v>
+      <c r="D22" s="20">
+        <v>8</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1502,17 +1517,17 @@
       <c r="W22" s="4"/>
     </row>
     <row r="23" spans="1:23" ht="39">
-      <c r="A23" s="19">
+      <c r="A23" s="21">
         <v>0</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
-      <c r="C23" s="36" t="s">
-        <v>55</v>
+      <c r="C23" s="15" t="s">
+        <v>53</v>
       </c>
-      <c r="D23" s="20">
-        <v>40</v>
+      <c r="D23" s="22">
+        <v>3</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1535,17 +1550,17 @@
       <c r="W23" s="4"/>
     </row>
     <row r="24" spans="1:23" ht="39">
-      <c r="A24" s="21">
+      <c r="A24" s="19">
         <v>0</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>54</v>
+      <c r="C24" s="36" t="s">
+        <v>55</v>
       </c>
-      <c r="D24" s="22">
-        <v>5</v>
+      <c r="D24" s="20">
+        <v>40</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1567,11 +1582,19 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="1:23" ht="36" customHeight="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
+    <row r="25" spans="1:23" ht="39">
+      <c r="A25" s="21">
+        <v>0</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="22">
+        <v>5</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1618,10 +1641,10 @@
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="1:23" ht="36" customHeight="1">
-      <c r="A27" s="27"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
-      <c r="D27" s="24"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1643,10 +1666,10 @@
       <c r="W27" s="4"/>
     </row>
     <row r="28" spans="1:23" ht="36" customHeight="1">
-      <c r="A28" s="23"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1693,10 +1716,10 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:23" ht="36" customHeight="1">
-      <c r="A30" s="27"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="24"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1718,10 +1741,10 @@
       <c r="W30" s="4"/>
     </row>
     <row r="31" spans="1:23" ht="36" customHeight="1">
-      <c r="A31" s="23"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1768,10 +1791,10 @@
       <c r="W32" s="4"/>
     </row>
     <row r="33" spans="1:23" ht="36" customHeight="1">
-      <c r="A33" s="27"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="24"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1793,10 +1816,10 @@
       <c r="W33" s="4"/>
     </row>
     <row r="34" spans="1:23" ht="36" customHeight="1">
-      <c r="A34" s="23"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1843,10 +1866,10 @@
       <c r="W35" s="4"/>
     </row>
     <row r="36" spans="1:23" ht="36" customHeight="1">
-      <c r="A36" s="27"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
-      <c r="D36" s="24"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1868,10 +1891,10 @@
       <c r="W36" s="4"/>
     </row>
     <row r="37" spans="1:23" ht="36" customHeight="1">
-      <c r="A37" s="23"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1918,10 +1941,10 @@
       <c r="W38" s="4"/>
     </row>
     <row r="39" spans="1:23" ht="36" customHeight="1">
-      <c r="A39" s="27"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
-      <c r="D39" s="24"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1943,10 +1966,10 @@
       <c r="W39" s="4"/>
     </row>
     <row r="40" spans="1:23" ht="36" customHeight="1">
-      <c r="A40" s="23"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -1993,10 +2016,10 @@
       <c r="W41" s="4"/>
     </row>
     <row r="42" spans="1:23" ht="36" customHeight="1">
-      <c r="A42" s="27"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="25"/>
-      <c r="D42" s="24"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -2018,10 +2041,10 @@
       <c r="W42" s="4"/>
     </row>
     <row r="43" spans="1:23" ht="36" customHeight="1">
-      <c r="A43" s="23"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="24"/>
       <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -2068,10 +2091,10 @@
       <c r="W44" s="4"/>
     </row>
     <row r="45" spans="1:23" ht="36" customHeight="1">
-      <c r="A45" s="27"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="24"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -2093,10 +2116,10 @@
       <c r="W45" s="4"/>
     </row>
     <row r="46" spans="1:23" ht="36" customHeight="1">
-      <c r="A46" s="23"/>
+      <c r="A46" s="27"/>
       <c r="B46" s="24"/>
       <c r="C46" s="25"/>
-      <c r="D46" s="26"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -2143,10 +2166,10 @@
       <c r="W47" s="4"/>
     </row>
     <row r="48" spans="1:23" ht="36" customHeight="1">
-      <c r="A48" s="27"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
-      <c r="D48" s="24"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -2168,10 +2191,10 @@
       <c r="W48" s="4"/>
     </row>
     <row r="49" spans="1:23" ht="36" customHeight="1">
-      <c r="A49" s="23"/>
+      <c r="A49" s="27"/>
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
-      <c r="D49" s="26"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -2218,10 +2241,10 @@
       <c r="W50" s="4"/>
     </row>
     <row r="51" spans="1:23" ht="36" customHeight="1">
-      <c r="A51" s="27"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
-      <c r="D51" s="24"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -2243,10 +2266,10 @@
       <c r="W51" s="4"/>
     </row>
     <row r="52" spans="1:23" ht="36" customHeight="1">
-      <c r="A52" s="23"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -2293,10 +2316,10 @@
       <c r="W53" s="4"/>
     </row>
     <row r="54" spans="1:23" ht="36" customHeight="1">
-      <c r="A54" s="27"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
-      <c r="D54" s="24"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -2318,10 +2341,10 @@
       <c r="W54" s="4"/>
     </row>
     <row r="55" spans="1:23" ht="36" customHeight="1">
-      <c r="A55" s="23"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="24"/>
       <c r="C55" s="25"/>
-      <c r="D55" s="26"/>
+      <c r="D55" s="24"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -2368,10 +2391,10 @@
       <c r="W56" s="4"/>
     </row>
     <row r="57" spans="1:23" ht="36" customHeight="1">
-      <c r="A57" s="27"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="24"/>
       <c r="C57" s="25"/>
-      <c r="D57" s="24"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -2393,10 +2416,10 @@
       <c r="W57" s="4"/>
     </row>
     <row r="58" spans="1:23" ht="36" customHeight="1">
-      <c r="A58" s="23"/>
+      <c r="A58" s="27"/>
       <c r="B58" s="24"/>
       <c r="C58" s="25"/>
-      <c r="D58" s="26"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -2443,10 +2466,10 @@
       <c r="W59" s="4"/>
     </row>
     <row r="60" spans="1:23" ht="36" customHeight="1">
-      <c r="A60" s="27"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="24"/>
       <c r="C60" s="25"/>
-      <c r="D60" s="24"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -2468,10 +2491,10 @@
       <c r="W60" s="4"/>
     </row>
     <row r="61" spans="1:23" ht="36" customHeight="1">
-      <c r="A61" s="23"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -2518,10 +2541,10 @@
       <c r="W62" s="4"/>
     </row>
     <row r="63" spans="1:23" ht="36" customHeight="1">
-      <c r="A63" s="27"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="24"/>
       <c r="C63" s="25"/>
-      <c r="D63" s="24"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -2543,10 +2566,10 @@
       <c r="W63" s="4"/>
     </row>
     <row r="64" spans="1:23" ht="36" customHeight="1">
-      <c r="A64" s="23"/>
+      <c r="A64" s="27"/>
       <c r="B64" s="24"/>
       <c r="C64" s="25"/>
-      <c r="D64" s="26"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -2593,10 +2616,10 @@
       <c r="W65" s="4"/>
     </row>
     <row r="66" spans="1:23" ht="36" customHeight="1">
-      <c r="A66" s="27"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="24"/>
       <c r="C66" s="25"/>
-      <c r="D66" s="24"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -2621,7 +2644,7 @@
       <c r="A67" s="27"/>
       <c r="B67" s="24"/>
       <c r="C67" s="25"/>
-      <c r="D67" s="28"/>
+      <c r="D67" s="24"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -2642,11 +2665,11 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
     </row>
-    <row r="68" spans="1:23" ht="13">
-      <c r="A68" s="29"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="30"/>
+    <row r="68" spans="1:23" ht="36" customHeight="1">
+      <c r="A68" s="27"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="28"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -26017,8 +26040,33 @@
       <c r="V1002" s="4"/>
       <c r="W1002" s="4"/>
     </row>
+    <row r="1003" spans="1:23" ht="13">
+      <c r="A1003" s="29"/>
+      <c r="B1003" s="30"/>
+      <c r="C1003" s="31"/>
+      <c r="D1003" s="30"/>
+      <c r="E1003" s="4"/>
+      <c r="F1003" s="4"/>
+      <c r="G1003" s="4"/>
+      <c r="H1003" s="4"/>
+      <c r="I1003" s="4"/>
+      <c r="J1003" s="4"/>
+      <c r="K1003" s="4"/>
+      <c r="L1003" s="4"/>
+      <c r="M1003" s="4"/>
+      <c r="N1003" s="4"/>
+      <c r="O1003" s="4"/>
+      <c r="P1003" s="4"/>
+      <c r="Q1003" s="4"/>
+      <c r="R1003" s="4"/>
+      <c r="S1003" s="4"/>
+      <c r="T1003" s="4"/>
+      <c r="U1003" s="4"/>
+      <c r="V1003" s="4"/>
+      <c r="W1003" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D49">
+  <autoFilter ref="A1:D50">
     <sortState ref="A2:D48">
       <sortCondition descending="1" ref="A1:A48"/>
     </sortState>
